--- a/results_sc/100/cifar100-100samples-500groups-sc-bim.xlsx
+++ b/results_sc/100/cifar100-100samples-500groups-sc-bim.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH10"/>
+  <dimension ref="A1:SF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,6 +612,1248 @@
       <c r="CH1" t="n">
         <v>85</v>
       </c>
+      <c r="CI1" t="n">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="n">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="n">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="n">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="n">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="n">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="n">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="n">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="n">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="n">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="n">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="n">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="n">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="n">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="n">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="n">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="n">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="n">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="n">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="n">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="n">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="n">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="n">
+        <v>108</v>
+      </c>
+      <c r="DF1" t="n">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="n">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="n">
+        <v>111</v>
+      </c>
+      <c r="DI1" t="n">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="n">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="n">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="n">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="n">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="n">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="n">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="n">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="n">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="n">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="n">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="n">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="n">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="n">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="n">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="n">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="n">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="n">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="n">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="n">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="n">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="n">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="n">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="n">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="n">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="n">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="n">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="n">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="n">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="n">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="n">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="n">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="n">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="n">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="n">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="n">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="n">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="n">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="n">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="n">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="n">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="n">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="n">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="n">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="n">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="n">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="n">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="n">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="n">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="n">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="n">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="n">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="n">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="n">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="n">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="n">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="n">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="n">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="n">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="n">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="n">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="n">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="n">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="n">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="n">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="n">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="n">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="n">
+        <v>179</v>
+      </c>
+      <c r="FY1" t="n">
+        <v>180</v>
+      </c>
+      <c r="FZ1" t="n">
+        <v>181</v>
+      </c>
+      <c r="GA1" t="n">
+        <v>182</v>
+      </c>
+      <c r="GB1" t="n">
+        <v>183</v>
+      </c>
+      <c r="GC1" t="n">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="n">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="n">
+        <v>186</v>
+      </c>
+      <c r="GF1" t="n">
+        <v>187</v>
+      </c>
+      <c r="GG1" t="n">
+        <v>188</v>
+      </c>
+      <c r="GH1" t="n">
+        <v>189</v>
+      </c>
+      <c r="GI1" t="n">
+        <v>190</v>
+      </c>
+      <c r="GJ1" t="n">
+        <v>191</v>
+      </c>
+      <c r="GK1" t="n">
+        <v>192</v>
+      </c>
+      <c r="GL1" t="n">
+        <v>193</v>
+      </c>
+      <c r="GM1" t="n">
+        <v>194</v>
+      </c>
+      <c r="GN1" t="n">
+        <v>195</v>
+      </c>
+      <c r="GO1" t="n">
+        <v>196</v>
+      </c>
+      <c r="GP1" t="n">
+        <v>197</v>
+      </c>
+      <c r="GQ1" t="n">
+        <v>198</v>
+      </c>
+      <c r="GR1" t="n">
+        <v>199</v>
+      </c>
+      <c r="GS1" t="n">
+        <v>200</v>
+      </c>
+      <c r="GT1" t="n">
+        <v>201</v>
+      </c>
+      <c r="GU1" t="n">
+        <v>202</v>
+      </c>
+      <c r="GV1" t="n">
+        <v>203</v>
+      </c>
+      <c r="GW1" t="n">
+        <v>204</v>
+      </c>
+      <c r="GX1" t="n">
+        <v>205</v>
+      </c>
+      <c r="GY1" t="n">
+        <v>206</v>
+      </c>
+      <c r="GZ1" t="n">
+        <v>207</v>
+      </c>
+      <c r="HA1" t="n">
+        <v>208</v>
+      </c>
+      <c r="HB1" t="n">
+        <v>209</v>
+      </c>
+      <c r="HC1" t="n">
+        <v>210</v>
+      </c>
+      <c r="HD1" t="n">
+        <v>211</v>
+      </c>
+      <c r="HE1" t="n">
+        <v>212</v>
+      </c>
+      <c r="HF1" t="n">
+        <v>213</v>
+      </c>
+      <c r="HG1" t="n">
+        <v>214</v>
+      </c>
+      <c r="HH1" t="n">
+        <v>215</v>
+      </c>
+      <c r="HI1" t="n">
+        <v>216</v>
+      </c>
+      <c r="HJ1" t="n">
+        <v>217</v>
+      </c>
+      <c r="HK1" t="n">
+        <v>218</v>
+      </c>
+      <c r="HL1" t="n">
+        <v>219</v>
+      </c>
+      <c r="HM1" t="n">
+        <v>220</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>221</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>222</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>223</v>
+      </c>
+      <c r="HQ1" t="n">
+        <v>224</v>
+      </c>
+      <c r="HR1" t="n">
+        <v>225</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>226</v>
+      </c>
+      <c r="HT1" t="n">
+        <v>227</v>
+      </c>
+      <c r="HU1" t="n">
+        <v>228</v>
+      </c>
+      <c r="HV1" t="n">
+        <v>229</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>230</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>231</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>232</v>
+      </c>
+      <c r="HZ1" t="n">
+        <v>233</v>
+      </c>
+      <c r="IA1" t="n">
+        <v>234</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>235</v>
+      </c>
+      <c r="IC1" t="n">
+        <v>236</v>
+      </c>
+      <c r="ID1" t="n">
+        <v>237</v>
+      </c>
+      <c r="IE1" t="n">
+        <v>238</v>
+      </c>
+      <c r="IF1" t="n">
+        <v>239</v>
+      </c>
+      <c r="IG1" t="n">
+        <v>240</v>
+      </c>
+      <c r="IH1" t="n">
+        <v>241</v>
+      </c>
+      <c r="II1" t="n">
+        <v>242</v>
+      </c>
+      <c r="IJ1" t="n">
+        <v>243</v>
+      </c>
+      <c r="IK1" t="n">
+        <v>244</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>245</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>246</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>247</v>
+      </c>
+      <c r="IO1" t="n">
+        <v>248</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>249</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>250</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>251</v>
+      </c>
+      <c r="IS1" t="n">
+        <v>252</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>253</v>
+      </c>
+      <c r="IU1" t="n">
+        <v>254</v>
+      </c>
+      <c r="IV1" t="n">
+        <v>255</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>256</v>
+      </c>
+      <c r="IX1" t="n">
+        <v>257</v>
+      </c>
+      <c r="IY1" t="n">
+        <v>258</v>
+      </c>
+      <c r="IZ1" t="n">
+        <v>259</v>
+      </c>
+      <c r="JA1" t="n">
+        <v>260</v>
+      </c>
+      <c r="JB1" t="n">
+        <v>261</v>
+      </c>
+      <c r="JC1" t="n">
+        <v>262</v>
+      </c>
+      <c r="JD1" t="n">
+        <v>263</v>
+      </c>
+      <c r="JE1" t="n">
+        <v>264</v>
+      </c>
+      <c r="JF1" t="n">
+        <v>265</v>
+      </c>
+      <c r="JG1" t="n">
+        <v>266</v>
+      </c>
+      <c r="JH1" t="n">
+        <v>267</v>
+      </c>
+      <c r="JI1" t="n">
+        <v>268</v>
+      </c>
+      <c r="JJ1" t="n">
+        <v>269</v>
+      </c>
+      <c r="JK1" t="n">
+        <v>270</v>
+      </c>
+      <c r="JL1" t="n">
+        <v>271</v>
+      </c>
+      <c r="JM1" t="n">
+        <v>272</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>273</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>274</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>275</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>276</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>277</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>278</v>
+      </c>
+      <c r="JT1" t="n">
+        <v>279</v>
+      </c>
+      <c r="JU1" t="n">
+        <v>280</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>281</v>
+      </c>
+      <c r="JW1" t="n">
+        <v>282</v>
+      </c>
+      <c r="JX1" t="n">
+        <v>283</v>
+      </c>
+      <c r="JY1" t="n">
+        <v>284</v>
+      </c>
+      <c r="JZ1" t="n">
+        <v>285</v>
+      </c>
+      <c r="KA1" t="n">
+        <v>286</v>
+      </c>
+      <c r="KB1" t="n">
+        <v>287</v>
+      </c>
+      <c r="KC1" t="n">
+        <v>288</v>
+      </c>
+      <c r="KD1" t="n">
+        <v>289</v>
+      </c>
+      <c r="KE1" t="n">
+        <v>290</v>
+      </c>
+      <c r="KF1" t="n">
+        <v>291</v>
+      </c>
+      <c r="KG1" t="n">
+        <v>292</v>
+      </c>
+      <c r="KH1" t="n">
+        <v>293</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>294</v>
+      </c>
+      <c r="KJ1" t="n">
+        <v>295</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>296</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>297</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>298</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>299</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>300</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>301</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>302</v>
+      </c>
+      <c r="KR1" t="n">
+        <v>303</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>304</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>305</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>306</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>307</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>308</v>
+      </c>
+      <c r="KX1" t="n">
+        <v>309</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>310</v>
+      </c>
+      <c r="KZ1" t="n">
+        <v>311</v>
+      </c>
+      <c r="LA1" t="n">
+        <v>312</v>
+      </c>
+      <c r="LB1" t="n">
+        <v>313</v>
+      </c>
+      <c r="LC1" t="n">
+        <v>314</v>
+      </c>
+      <c r="LD1" t="n">
+        <v>315</v>
+      </c>
+      <c r="LE1" t="n">
+        <v>316</v>
+      </c>
+      <c r="LF1" t="n">
+        <v>317</v>
+      </c>
+      <c r="LG1" t="n">
+        <v>318</v>
+      </c>
+      <c r="LH1" t="n">
+        <v>319</v>
+      </c>
+      <c r="LI1" t="n">
+        <v>320</v>
+      </c>
+      <c r="LJ1" t="n">
+        <v>321</v>
+      </c>
+      <c r="LK1" t="n">
+        <v>322</v>
+      </c>
+      <c r="LL1" t="n">
+        <v>323</v>
+      </c>
+      <c r="LM1" t="n">
+        <v>324</v>
+      </c>
+      <c r="LN1" t="n">
+        <v>325</v>
+      </c>
+      <c r="LO1" t="n">
+        <v>326</v>
+      </c>
+      <c r="LP1" t="n">
+        <v>327</v>
+      </c>
+      <c r="LQ1" t="n">
+        <v>328</v>
+      </c>
+      <c r="LR1" t="n">
+        <v>329</v>
+      </c>
+      <c r="LS1" t="n">
+        <v>330</v>
+      </c>
+      <c r="LT1" t="n">
+        <v>331</v>
+      </c>
+      <c r="LU1" t="n">
+        <v>332</v>
+      </c>
+      <c r="LV1" t="n">
+        <v>333</v>
+      </c>
+      <c r="LW1" t="n">
+        <v>334</v>
+      </c>
+      <c r="LX1" t="n">
+        <v>335</v>
+      </c>
+      <c r="LY1" t="n">
+        <v>336</v>
+      </c>
+      <c r="LZ1" t="n">
+        <v>337</v>
+      </c>
+      <c r="MA1" t="n">
+        <v>338</v>
+      </c>
+      <c r="MB1" t="n">
+        <v>339</v>
+      </c>
+      <c r="MC1" t="n">
+        <v>340</v>
+      </c>
+      <c r="MD1" t="n">
+        <v>341</v>
+      </c>
+      <c r="ME1" t="n">
+        <v>342</v>
+      </c>
+      <c r="MF1" t="n">
+        <v>343</v>
+      </c>
+      <c r="MG1" t="n">
+        <v>344</v>
+      </c>
+      <c r="MH1" t="n">
+        <v>345</v>
+      </c>
+      <c r="MI1" t="n">
+        <v>346</v>
+      </c>
+      <c r="MJ1" t="n">
+        <v>347</v>
+      </c>
+      <c r="MK1" t="n">
+        <v>348</v>
+      </c>
+      <c r="ML1" t="n">
+        <v>349</v>
+      </c>
+      <c r="MM1" t="n">
+        <v>350</v>
+      </c>
+      <c r="MN1" t="n">
+        <v>351</v>
+      </c>
+      <c r="MO1" t="n">
+        <v>352</v>
+      </c>
+      <c r="MP1" t="n">
+        <v>353</v>
+      </c>
+      <c r="MQ1" t="n">
+        <v>354</v>
+      </c>
+      <c r="MR1" t="n">
+        <v>355</v>
+      </c>
+      <c r="MS1" t="n">
+        <v>356</v>
+      </c>
+      <c r="MT1" t="n">
+        <v>357</v>
+      </c>
+      <c r="MU1" t="n">
+        <v>358</v>
+      </c>
+      <c r="MV1" t="n">
+        <v>359</v>
+      </c>
+      <c r="MW1" t="n">
+        <v>360</v>
+      </c>
+      <c r="MX1" t="n">
+        <v>361</v>
+      </c>
+      <c r="MY1" t="n">
+        <v>362</v>
+      </c>
+      <c r="MZ1" t="n">
+        <v>363</v>
+      </c>
+      <c r="NA1" t="n">
+        <v>364</v>
+      </c>
+      <c r="NB1" t="n">
+        <v>365</v>
+      </c>
+      <c r="NC1" t="n">
+        <v>366</v>
+      </c>
+      <c r="ND1" t="n">
+        <v>367</v>
+      </c>
+      <c r="NE1" t="n">
+        <v>368</v>
+      </c>
+      <c r="NF1" t="n">
+        <v>369</v>
+      </c>
+      <c r="NG1" t="n">
+        <v>370</v>
+      </c>
+      <c r="NH1" t="n">
+        <v>371</v>
+      </c>
+      <c r="NI1" t="n">
+        <v>372</v>
+      </c>
+      <c r="NJ1" t="n">
+        <v>373</v>
+      </c>
+      <c r="NK1" t="n">
+        <v>374</v>
+      </c>
+      <c r="NL1" t="n">
+        <v>375</v>
+      </c>
+      <c r="NM1" t="n">
+        <v>376</v>
+      </c>
+      <c r="NN1" t="n">
+        <v>377</v>
+      </c>
+      <c r="NO1" t="n">
+        <v>378</v>
+      </c>
+      <c r="NP1" t="n">
+        <v>379</v>
+      </c>
+      <c r="NQ1" t="n">
+        <v>380</v>
+      </c>
+      <c r="NR1" t="n">
+        <v>381</v>
+      </c>
+      <c r="NS1" t="n">
+        <v>382</v>
+      </c>
+      <c r="NT1" t="n">
+        <v>383</v>
+      </c>
+      <c r="NU1" t="n">
+        <v>384</v>
+      </c>
+      <c r="NV1" t="n">
+        <v>385</v>
+      </c>
+      <c r="NW1" t="n">
+        <v>386</v>
+      </c>
+      <c r="NX1" t="n">
+        <v>387</v>
+      </c>
+      <c r="NY1" t="n">
+        <v>388</v>
+      </c>
+      <c r="NZ1" t="n">
+        <v>389</v>
+      </c>
+      <c r="OA1" t="n">
+        <v>390</v>
+      </c>
+      <c r="OB1" t="n">
+        <v>391</v>
+      </c>
+      <c r="OC1" t="n">
+        <v>392</v>
+      </c>
+      <c r="OD1" t="n">
+        <v>393</v>
+      </c>
+      <c r="OE1" t="n">
+        <v>394</v>
+      </c>
+      <c r="OF1" t="n">
+        <v>395</v>
+      </c>
+      <c r="OG1" t="n">
+        <v>396</v>
+      </c>
+      <c r="OH1" t="n">
+        <v>397</v>
+      </c>
+      <c r="OI1" t="n">
+        <v>398</v>
+      </c>
+      <c r="OJ1" t="n">
+        <v>399</v>
+      </c>
+      <c r="OK1" t="n">
+        <v>400</v>
+      </c>
+      <c r="OL1" t="n">
+        <v>401</v>
+      </c>
+      <c r="OM1" t="n">
+        <v>402</v>
+      </c>
+      <c r="ON1" t="n">
+        <v>403</v>
+      </c>
+      <c r="OO1" t="n">
+        <v>404</v>
+      </c>
+      <c r="OP1" t="n">
+        <v>405</v>
+      </c>
+      <c r="OQ1" t="n">
+        <v>406</v>
+      </c>
+      <c r="OR1" t="n">
+        <v>407</v>
+      </c>
+      <c r="OS1" t="n">
+        <v>408</v>
+      </c>
+      <c r="OT1" t="n">
+        <v>409</v>
+      </c>
+      <c r="OU1" t="n">
+        <v>410</v>
+      </c>
+      <c r="OV1" t="n">
+        <v>411</v>
+      </c>
+      <c r="OW1" t="n">
+        <v>412</v>
+      </c>
+      <c r="OX1" t="n">
+        <v>413</v>
+      </c>
+      <c r="OY1" t="n">
+        <v>414</v>
+      </c>
+      <c r="OZ1" t="n">
+        <v>415</v>
+      </c>
+      <c r="PA1" t="n">
+        <v>416</v>
+      </c>
+      <c r="PB1" t="n">
+        <v>417</v>
+      </c>
+      <c r="PC1" t="n">
+        <v>418</v>
+      </c>
+      <c r="PD1" t="n">
+        <v>419</v>
+      </c>
+      <c r="PE1" t="n">
+        <v>420</v>
+      </c>
+      <c r="PF1" t="n">
+        <v>421</v>
+      </c>
+      <c r="PG1" t="n">
+        <v>422</v>
+      </c>
+      <c r="PH1" t="n">
+        <v>423</v>
+      </c>
+      <c r="PI1" t="n">
+        <v>424</v>
+      </c>
+      <c r="PJ1" t="n">
+        <v>425</v>
+      </c>
+      <c r="PK1" t="n">
+        <v>426</v>
+      </c>
+      <c r="PL1" t="n">
+        <v>427</v>
+      </c>
+      <c r="PM1" t="n">
+        <v>428</v>
+      </c>
+      <c r="PN1" t="n">
+        <v>429</v>
+      </c>
+      <c r="PO1" t="n">
+        <v>430</v>
+      </c>
+      <c r="PP1" t="n">
+        <v>431</v>
+      </c>
+      <c r="PQ1" t="n">
+        <v>432</v>
+      </c>
+      <c r="PR1" t="n">
+        <v>433</v>
+      </c>
+      <c r="PS1" t="n">
+        <v>434</v>
+      </c>
+      <c r="PT1" t="n">
+        <v>435</v>
+      </c>
+      <c r="PU1" t="n">
+        <v>436</v>
+      </c>
+      <c r="PV1" t="n">
+        <v>437</v>
+      </c>
+      <c r="PW1" t="n">
+        <v>438</v>
+      </c>
+      <c r="PX1" t="n">
+        <v>439</v>
+      </c>
+      <c r="PY1" t="n">
+        <v>440</v>
+      </c>
+      <c r="PZ1" t="n">
+        <v>441</v>
+      </c>
+      <c r="QA1" t="n">
+        <v>442</v>
+      </c>
+      <c r="QB1" t="n">
+        <v>443</v>
+      </c>
+      <c r="QC1" t="n">
+        <v>444</v>
+      </c>
+      <c r="QD1" t="n">
+        <v>445</v>
+      </c>
+      <c r="QE1" t="n">
+        <v>446</v>
+      </c>
+      <c r="QF1" t="n">
+        <v>447</v>
+      </c>
+      <c r="QG1" t="n">
+        <v>448</v>
+      </c>
+      <c r="QH1" t="n">
+        <v>449</v>
+      </c>
+      <c r="QI1" t="n">
+        <v>450</v>
+      </c>
+      <c r="QJ1" t="n">
+        <v>451</v>
+      </c>
+      <c r="QK1" t="n">
+        <v>452</v>
+      </c>
+      <c r="QL1" t="n">
+        <v>453</v>
+      </c>
+      <c r="QM1" t="n">
+        <v>454</v>
+      </c>
+      <c r="QN1" t="n">
+        <v>455</v>
+      </c>
+      <c r="QO1" t="n">
+        <v>456</v>
+      </c>
+      <c r="QP1" t="n">
+        <v>457</v>
+      </c>
+      <c r="QQ1" t="n">
+        <v>458</v>
+      </c>
+      <c r="QR1" t="n">
+        <v>459</v>
+      </c>
+      <c r="QS1" t="n">
+        <v>460</v>
+      </c>
+      <c r="QT1" t="n">
+        <v>461</v>
+      </c>
+      <c r="QU1" t="n">
+        <v>462</v>
+      </c>
+      <c r="QV1" t="n">
+        <v>463</v>
+      </c>
+      <c r="QW1" t="n">
+        <v>464</v>
+      </c>
+      <c r="QX1" t="n">
+        <v>465</v>
+      </c>
+      <c r="QY1" t="n">
+        <v>466</v>
+      </c>
+      <c r="QZ1" t="n">
+        <v>467</v>
+      </c>
+      <c r="RA1" t="n">
+        <v>468</v>
+      </c>
+      <c r="RB1" t="n">
+        <v>469</v>
+      </c>
+      <c r="RC1" t="n">
+        <v>470</v>
+      </c>
+      <c r="RD1" t="n">
+        <v>471</v>
+      </c>
+      <c r="RE1" t="n">
+        <v>472</v>
+      </c>
+      <c r="RF1" t="n">
+        <v>473</v>
+      </c>
+      <c r="RG1" t="n">
+        <v>474</v>
+      </c>
+      <c r="RH1" t="n">
+        <v>475</v>
+      </c>
+      <c r="RI1" t="n">
+        <v>476</v>
+      </c>
+      <c r="RJ1" t="n">
+        <v>477</v>
+      </c>
+      <c r="RK1" t="n">
+        <v>478</v>
+      </c>
+      <c r="RL1" t="n">
+        <v>479</v>
+      </c>
+      <c r="RM1" t="n">
+        <v>480</v>
+      </c>
+      <c r="RN1" t="n">
+        <v>481</v>
+      </c>
+      <c r="RO1" t="n">
+        <v>482</v>
+      </c>
+      <c r="RP1" t="n">
+        <v>483</v>
+      </c>
+      <c r="RQ1" t="n">
+        <v>484</v>
+      </c>
+      <c r="RR1" t="n">
+        <v>485</v>
+      </c>
+      <c r="RS1" t="n">
+        <v>486</v>
+      </c>
+      <c r="RT1" t="n">
+        <v>487</v>
+      </c>
+      <c r="RU1" t="n">
+        <v>488</v>
+      </c>
+      <c r="RV1" t="n">
+        <v>489</v>
+      </c>
+      <c r="RW1" t="n">
+        <v>490</v>
+      </c>
+      <c r="RX1" t="n">
+        <v>491</v>
+      </c>
+      <c r="RY1" t="n">
+        <v>492</v>
+      </c>
+      <c r="RZ1" t="n">
+        <v>493</v>
+      </c>
+      <c r="SA1" t="n">
+        <v>494</v>
+      </c>
+      <c r="SB1" t="n">
+        <v>495</v>
+      </c>
+      <c r="SC1" t="n">
+        <v>496</v>
+      </c>
+      <c r="SD1" t="n">
+        <v>497</v>
+      </c>
+      <c r="SE1" t="n">
+        <v>498</v>
+      </c>
+      <c r="SF1" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -871,6 +2113,1248 @@
       </c>
       <c r="CH4" t="n">
         <v>0.01</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="II4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="NN4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="NO4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="NP4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="NQ4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="NR4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="NS4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="NT4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="NU4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="NV4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="NW4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="NX4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="NY4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="NZ4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="OA4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="OB4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="OC4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="OD4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="OE4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="OF4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="OG4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="OH4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="OI4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="OJ4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="OK4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="OL4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="OM4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="ON4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="OO4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="OP4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="OQ4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="OR4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="OS4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="OT4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="OU4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="OV4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="OW4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="OX4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="OY4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="OZ4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="PA4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="PB4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="PC4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="PD4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="PE4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="PF4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="PG4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="PH4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="PI4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="PJ4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="PK4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="PL4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="PM4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="PN4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="PO4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="PP4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="PQ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="PR4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="PS4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="PT4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="PU4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="PV4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="PW4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="PX4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="PY4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="PZ4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="QA4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="QB4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="QC4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="QD4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="QE4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="QF4" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="QG4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="QH4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="QI4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="QJ4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="QK4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="QL4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="QM4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="QN4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="QO4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="QP4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="QQ4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="QR4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="QS4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="QT4" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="QU4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="QV4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="QW4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="QX4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="QY4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="QZ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="RA4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="RB4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="RC4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="RD4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="RE4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="RF4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="RG4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="RH4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="RI4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="RJ4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="RK4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="RL4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="RM4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="RN4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="RO4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="RP4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="RQ4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="RR4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="RS4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="RT4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="RU4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="RV4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="RW4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="RX4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="RY4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="RZ4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="SA4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="SB4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="SC4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="SD4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="SE4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="SF4" t="n">
+        <v>0.015</v>
       </c>
     </row>
     <row r="7">
@@ -1132,6 +3616,1248 @@
       <c r="CH7" t="n">
         <v>0.064</v>
       </c>
+      <c r="CI7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="GH7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="GI7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="GJ7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="GK7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="GL7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="GM7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="GN7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="GO7" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="GP7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="GQ7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="GR7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="GS7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="HC7" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="IG7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="IH7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="II7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="IJ7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="IM7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="IO7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="IS7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="IY7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="IZ7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="JA7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="JB7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="JC7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="JD7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="JE7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="JF7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="JG7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="JH7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="JI7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="JJ7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="JK7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="JL7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JM7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="JW7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="JX7" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="JY7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="JZ7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="KA7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="KB7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="KC7" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="KD7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="KE7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="KF7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="KG7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="KH7" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="KI7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="KJ7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="KK7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="KL7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="KM7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="KN7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="KO7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="KP7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="KQ7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="KR7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="KS7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="KT7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="KU7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="KV7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="KW7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="KX7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="KY7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="KZ7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="LA7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="LB7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="LC7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="LD7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="LE7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="LF7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="LG7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="LH7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="LI7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="LJ7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="LK7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="LL7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="LM7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="LN7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="LO7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="LP7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="LQ7" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="LR7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="LS7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="LT7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="LU7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="LV7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="LW7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="LX7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="LY7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="LZ7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="MA7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="MB7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="MC7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="MD7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="ME7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="MF7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="MG7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="MH7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="MI7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="MJ7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="MK7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="ML7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="MM7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="MN7" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="MO7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="MP7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="MQ7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="MR7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="MS7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="MT7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="MU7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="MV7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="MW7" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="MX7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="MY7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="MZ7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="NA7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="NB7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="NC7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="ND7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="NE7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="NF7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="NG7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="NH7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="NI7" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="NJ7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="NK7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="NL7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="NM7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="NN7" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="NO7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="NP7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="NQ7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="NR7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="NS7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="NT7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="NU7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="NV7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="NW7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="NX7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="NY7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="NZ7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="OA7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="OB7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="OC7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="OD7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="OE7" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="OF7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="OG7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="OH7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="OI7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="OJ7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="OK7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="OL7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="OM7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="ON7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="OO7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="OP7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="OQ7" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="OR7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="OS7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="OT7" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="OU7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="OV7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="OW7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="OX7" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="OY7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="OZ7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="PA7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="PB7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="PC7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="PD7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="PE7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="PF7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="PG7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="PH7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="PI7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="PJ7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="PK7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="PL7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="PM7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="PN7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="PO7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="PP7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="PQ7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="PR7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="PS7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="PT7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="PU7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="PV7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="PW7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="PX7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="PY7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="PZ7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="QA7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="QB7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="QC7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="QD7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="QE7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="QF7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="QG7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="QH7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="QI7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="QJ7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="QK7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="QL7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="QM7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="QN7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="QO7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="QP7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="QQ7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="QR7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="QS7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="QT7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="QU7" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="QV7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="QW7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="QX7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="QY7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="QZ7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="RA7" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="RB7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="RC7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="RD7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="RE7" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="RF7" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="RG7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="RH7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="RI7" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="RJ7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="RK7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="RL7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="RM7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="RN7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="RO7" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="RP7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="RQ7" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="RR7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="RS7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="RT7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="RU7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="RV7" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="RW7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="RX7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="RY7" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="RZ7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="SA7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="SB7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="SC7" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="SD7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="SE7" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="SF7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1392,6 +5118,1248 @@
       <c r="CH9" t="n">
         <v>0.2881836110025041</v>
       </c>
+      <c r="CI9" t="n">
+        <v>0.09587225363891483</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.4994414286654153</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.2194233804051529</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.08365113456691098</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.829728503567598</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.1224743644335591</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.6658528959002895</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0.3114870546325668</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.08328768830750721</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.8558932398124507</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.9522801594035948</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0.3875684778061971</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.9825989257198827</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.4501290685759237</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.815258302677957</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0.3992724401610714</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0.5315250740978061</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.09954910633863412</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0.4014613434602893</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0.3463659821573696</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0.1315974416329242</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0.9533437265459687</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0.7871246494164433</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0.2762022955013457</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0.7442341179045712</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0.663406333894425</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0.6132848556943008</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0.8529881881663334</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0.003810907643091666</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0.06943690784952217</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0.5570355224340241</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0.8394810954459296</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0.1122809994169196</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0.8081576739575588</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0.7821879930409215</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0.752580214116123</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0.3714887748599031</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0.3008705500967885</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0.3615804226114256</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0.9149432799629199</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>0.5576595973082128</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0.6634167915326301</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0.1961545413400863</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0.3595085441058743</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0.6135016371901392</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0.6804507895024002</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>0.1276951699913959</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0.545887964166354</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0.9664836596846772</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0.7533246940993465</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>0.3280454324661178</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>0.007144045338625227</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0.07277072015774222</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>0.4125230685400519</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0.4675385310645795</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>0.8490600977501905</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0.47201193695445</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0.2875699867728787</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0.08626750941170414</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>0.2293975295694597</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0.603293610040777</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0.8340324315283791</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0.3311148266450046</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0.8658456597282429</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0.03669167217492142</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0.2516216771858831</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0.07382308525749859</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0.09562676016809346</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>0.09177696792767343</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0.3248975752710962</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0.5510427402974073</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0.06718096412969266</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0.6027316938764751</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0.9797814653241098</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0.5086334200952549</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0.8689309769595296</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0.9393225324770423</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0.5422623781705767</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0.6281582010887008</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>0.7954856920663431</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>0.5954607194090861</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>0.5402198598172958</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0.867627185072558</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0.4606215745389504</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>0.004104691679484462</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0.2413549372651979</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>0.3807954565861269</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>0.5357144857960385</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>0.74717218194247</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>0.3360011861516577</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>0.9279531689295862</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>0.4540519660677117</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>0.6888593483737195</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>0.8767136181504308</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>0.9256154187909852</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>0.06900357289069015</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>0.6028002504600248</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>0.5370834017491567</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>0.824416713218699</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>0.2389933669340483</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>0.5081248768199788</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>0.677924413688024</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>0.5615042858815105</v>
+      </c>
+      <c r="GH9" t="n">
+        <v>0.1302476674571765</v>
+      </c>
+      <c r="GI9" t="n">
+        <v>0.01229644713807865</v>
+      </c>
+      <c r="GJ9" t="n">
+        <v>0.8161735867513896</v>
+      </c>
+      <c r="GK9" t="n">
+        <v>0.9131388792798296</v>
+      </c>
+      <c r="GL9" t="n">
+        <v>0.6706680142385817</v>
+      </c>
+      <c r="GM9" t="n">
+        <v>0.3531049030146088</v>
+      </c>
+      <c r="GN9" t="n">
+        <v>0.4736853019515348</v>
+      </c>
+      <c r="GO9" t="n">
+        <v>0.2188071748051443</v>
+      </c>
+      <c r="GP9" t="n">
+        <v>0.1811997963983957</v>
+      </c>
+      <c r="GQ9" t="n">
+        <v>0.3271613544008656</v>
+      </c>
+      <c r="GR9" t="n">
+        <v>0.216657412905116</v>
+      </c>
+      <c r="GS9" t="n">
+        <v>0.5879333040014932</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>0.009002208672723722</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>0.7612502591227045</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>0.08356521677186191</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>0.08332607780237222</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>0.9244130867572153</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>0.2329229240885806</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>0.7962932957487004</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>0.3984515302505819</v>
+      </c>
+      <c r="HB9" t="n">
+        <v>0.7724048968152479</v>
+      </c>
+      <c r="HC9" t="n">
+        <v>0.06643393043655432</v>
+      </c>
+      <c r="HD9" t="n">
+        <v>0.3494073985215211</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>0.9811689971524594</v>
+      </c>
+      <c r="HF9" t="n">
+        <v>0.6380922798777049</v>
+      </c>
+      <c r="HG9" t="n">
+        <v>0.5365443207180974</v>
+      </c>
+      <c r="HH9" t="n">
+        <v>0.2139708532016867</v>
+      </c>
+      <c r="HI9" t="n">
+        <v>0.9744514692745171</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>0.3330453038187915</v>
+      </c>
+      <c r="HK9" t="n">
+        <v>0.05767806338938786</v>
+      </c>
+      <c r="HL9" t="n">
+        <v>0.5617647688628062</v>
+      </c>
+      <c r="HM9" t="n">
+        <v>0.2171206873520507</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>0.9796393763181817</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>0.3290988045167914</v>
+      </c>
+      <c r="HP9" t="n">
+        <v>0.23235327761206</v>
+      </c>
+      <c r="HQ9" t="n">
+        <v>0.1046558112081043</v>
+      </c>
+      <c r="HR9" t="n">
+        <v>0.5085463324033234</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>0.9767847795780802</v>
+      </c>
+      <c r="HT9" t="n">
+        <v>0.7962172178945905</v>
+      </c>
+      <c r="HU9" t="n">
+        <v>0.7315262656009429</v>
+      </c>
+      <c r="HV9" t="n">
+        <v>0.5865366440325596</v>
+      </c>
+      <c r="HW9" t="n">
+        <v>0.7994461782958781</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>0.4525673542452193</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>0.1446169474116947</v>
+      </c>
+      <c r="HZ9" t="n">
+        <v>0.1228647616946267</v>
+      </c>
+      <c r="IA9" t="n">
+        <v>0.8533093360049182</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>0.9056325412741378</v>
+      </c>
+      <c r="IC9" t="n">
+        <v>0.5491432341013399</v>
+      </c>
+      <c r="ID9" t="n">
+        <v>0.2370655240213315</v>
+      </c>
+      <c r="IE9" t="n">
+        <v>0.1827767497215332</v>
+      </c>
+      <c r="IF9" t="n">
+        <v>0.4595204006099423</v>
+      </c>
+      <c r="IG9" t="n">
+        <v>0.5648619916713162</v>
+      </c>
+      <c r="IH9" t="n">
+        <v>0.3379176621695106</v>
+      </c>
+      <c r="II9" t="n">
+        <v>0.4096854778737217</v>
+      </c>
+      <c r="IJ9" t="n">
+        <v>0.3545949250178208</v>
+      </c>
+      <c r="IK9" t="n">
+        <v>0.1844001071146634</v>
+      </c>
+      <c r="IL9" t="n">
+        <v>0.2318665592104069</v>
+      </c>
+      <c r="IM9" t="n">
+        <v>0.6999548640243896</v>
+      </c>
+      <c r="IN9" t="n">
+        <v>0.2252700028735095</v>
+      </c>
+      <c r="IO9" t="n">
+        <v>0.5953777894543745</v>
+      </c>
+      <c r="IP9" t="n">
+        <v>0.2412961670100119</v>
+      </c>
+      <c r="IQ9" t="n">
+        <v>0.7184503870373634</v>
+      </c>
+      <c r="IR9" t="n">
+        <v>0.9371479323493839</v>
+      </c>
+      <c r="IS9" t="n">
+        <v>0.001608001851405083</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>0.5689466905127223</v>
+      </c>
+      <c r="IU9" t="n">
+        <v>0.9393995578800888</v>
+      </c>
+      <c r="IV9" t="n">
+        <v>0.8037434316412262</v>
+      </c>
+      <c r="IW9" t="n">
+        <v>0.1604477320783463</v>
+      </c>
+      <c r="IX9" t="n">
+        <v>0.1757356960578288</v>
+      </c>
+      <c r="IY9" t="n">
+        <v>0.8957332986345931</v>
+      </c>
+      <c r="IZ9" t="n">
+        <v>0.6186611012830526</v>
+      </c>
+      <c r="JA9" t="n">
+        <v>0.3050061501052228</v>
+      </c>
+      <c r="JB9" t="n">
+        <v>0.9471001581618742</v>
+      </c>
+      <c r="JC9" t="n">
+        <v>0.09657364919811473</v>
+      </c>
+      <c r="JD9" t="n">
+        <v>0.05721602625022304</v>
+      </c>
+      <c r="JE9" t="n">
+        <v>0.9181833246211337</v>
+      </c>
+      <c r="JF9" t="n">
+        <v>0.8033749945517166</v>
+      </c>
+      <c r="JG9" t="n">
+        <v>0.8553759117177828</v>
+      </c>
+      <c r="JH9" t="n">
+        <v>0.5362901212298327</v>
+      </c>
+      <c r="JI9" t="n">
+        <v>0.4439986693650707</v>
+      </c>
+      <c r="JJ9" t="n">
+        <v>0.4652509484907918</v>
+      </c>
+      <c r="JK9" t="n">
+        <v>0.4074817928239779</v>
+      </c>
+      <c r="JL9" t="n">
+        <v>0.9391986700310636</v>
+      </c>
+      <c r="JM9" t="n">
+        <v>0.3838570186129535</v>
+      </c>
+      <c r="JN9" t="n">
+        <v>0.7863673208447961</v>
+      </c>
+      <c r="JO9" t="n">
+        <v>0.197315626071804</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>0.2902113830444248</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>0.9241680658949517</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>0.9961806317293588</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>0.7988745628826792</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>0.3430820027920841</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>0.1906260821332321</v>
+      </c>
+      <c r="JV9" t="n">
+        <v>0.9634440808299281</v>
+      </c>
+      <c r="JW9" t="n">
+        <v>0.201410238734777</v>
+      </c>
+      <c r="JX9" t="n">
+        <v>0.50486926785516</v>
+      </c>
+      <c r="JY9" t="n">
+        <v>0.01487771372927627</v>
+      </c>
+      <c r="JZ9" t="n">
+        <v>0.2059997781064066</v>
+      </c>
+      <c r="KA9" t="n">
+        <v>0.091777684934082</v>
+      </c>
+      <c r="KB9" t="n">
+        <v>0.03614861233320088</v>
+      </c>
+      <c r="KC9" t="n">
+        <v>0.07883283880021463</v>
+      </c>
+      <c r="KD9" t="n">
+        <v>0.1489720563494809</v>
+      </c>
+      <c r="KE9" t="n">
+        <v>0.2200911096592284</v>
+      </c>
+      <c r="KF9" t="n">
+        <v>0.4048648816397404</v>
+      </c>
+      <c r="KG9" t="n">
+        <v>0.5697168830667565</v>
+      </c>
+      <c r="KH9" t="n">
+        <v>0.9601081840500408</v>
+      </c>
+      <c r="KI9" t="n">
+        <v>0.1412749170641445</v>
+      </c>
+      <c r="KJ9" t="n">
+        <v>0.3779739651765173</v>
+      </c>
+      <c r="KK9" t="n">
+        <v>0.06261051690774777</v>
+      </c>
+      <c r="KL9" t="n">
+        <v>0.5617655098336011</v>
+      </c>
+      <c r="KM9" t="n">
+        <v>0.7404118675969639</v>
+      </c>
+      <c r="KN9" t="n">
+        <v>0.1851760482205745</v>
+      </c>
+      <c r="KO9" t="n">
+        <v>0.1447428356126839</v>
+      </c>
+      <c r="KP9" t="n">
+        <v>0.3312308285287329</v>
+      </c>
+      <c r="KQ9" t="n">
+        <v>0.5288279864482534</v>
+      </c>
+      <c r="KR9" t="n">
+        <v>0.678406026206369</v>
+      </c>
+      <c r="KS9" t="n">
+        <v>0.9833056511839577</v>
+      </c>
+      <c r="KT9" t="n">
+        <v>0.07375692615779084</v>
+      </c>
+      <c r="KU9" t="n">
+        <v>0.01946999303577635</v>
+      </c>
+      <c r="KV9" t="n">
+        <v>0.1662630876126768</v>
+      </c>
+      <c r="KW9" t="n">
+        <v>0.8085572150436422</v>
+      </c>
+      <c r="KX9" t="n">
+        <v>0.4433326164319876</v>
+      </c>
+      <c r="KY9" t="n">
+        <v>0.2363272673736089</v>
+      </c>
+      <c r="KZ9" t="n">
+        <v>0.05030363505696733</v>
+      </c>
+      <c r="LA9" t="n">
+        <v>0.5457280872504429</v>
+      </c>
+      <c r="LB9" t="n">
+        <v>0.2711020239301388</v>
+      </c>
+      <c r="LC9" t="n">
+        <v>0.4225220930621543</v>
+      </c>
+      <c r="LD9" t="n">
+        <v>0.1714953120363935</v>
+      </c>
+      <c r="LE9" t="n">
+        <v>0.4863472274800013</v>
+      </c>
+      <c r="LF9" t="n">
+        <v>0.7235071693924016</v>
+      </c>
+      <c r="LG9" t="n">
+        <v>0.5872595710696284</v>
+      </c>
+      <c r="LH9" t="n">
+        <v>0.5297524422059092</v>
+      </c>
+      <c r="LI9" t="n">
+        <v>0.2903779917180435</v>
+      </c>
+      <c r="LJ9" t="n">
+        <v>0.2925308399843366</v>
+      </c>
+      <c r="LK9" t="n">
+        <v>0.6371961584394897</v>
+      </c>
+      <c r="LL9" t="n">
+        <v>0.5578631150898187</v>
+      </c>
+      <c r="LM9" t="n">
+        <v>0.5941511255258709</v>
+      </c>
+      <c r="LN9" t="n">
+        <v>0.5966079569754441</v>
+      </c>
+      <c r="LO9" t="n">
+        <v>0.2482824417524635</v>
+      </c>
+      <c r="LP9" t="n">
+        <v>0.2572437704661187</v>
+      </c>
+      <c r="LQ9" t="n">
+        <v>0.3700821127489714</v>
+      </c>
+      <c r="LR9" t="n">
+        <v>0.9142461576673325</v>
+      </c>
+      <c r="LS9" t="n">
+        <v>0.6962174237879958</v>
+      </c>
+      <c r="LT9" t="n">
+        <v>0.4901679458098932</v>
+      </c>
+      <c r="LU9" t="n">
+        <v>0.1221992676258286</v>
+      </c>
+      <c r="LV9" t="n">
+        <v>0.4375699588636739</v>
+      </c>
+      <c r="LW9" t="n">
+        <v>0.9220809719215058</v>
+      </c>
+      <c r="LX9" t="n">
+        <v>0.5487954368806476</v>
+      </c>
+      <c r="LY9" t="n">
+        <v>0.6472928795266228</v>
+      </c>
+      <c r="LZ9" t="n">
+        <v>0.04625229028050637</v>
+      </c>
+      <c r="MA9" t="n">
+        <v>0.727798360180796</v>
+      </c>
+      <c r="MB9" t="n">
+        <v>0.1899809552460088</v>
+      </c>
+      <c r="MC9" t="n">
+        <v>0.7225746189824654</v>
+      </c>
+      <c r="MD9" t="n">
+        <v>0.443955486354584</v>
+      </c>
+      <c r="ME9" t="n">
+        <v>0.2677034019724355</v>
+      </c>
+      <c r="MF9" t="n">
+        <v>0.5233477351223975</v>
+      </c>
+      <c r="MG9" t="n">
+        <v>0.05275598870785858</v>
+      </c>
+      <c r="MH9" t="n">
+        <v>0.2309852511969479</v>
+      </c>
+      <c r="MI9" t="n">
+        <v>0.9744132841920339</v>
+      </c>
+      <c r="MJ9" t="n">
+        <v>0.2291192115273075</v>
+      </c>
+      <c r="MK9" t="n">
+        <v>0.0008107079586813226</v>
+      </c>
+      <c r="ML9" t="n">
+        <v>0.3995899287155719</v>
+      </c>
+      <c r="MM9" t="n">
+        <v>0.3749469168803777</v>
+      </c>
+      <c r="MN9" t="n">
+        <v>0.6592936855866202</v>
+      </c>
+      <c r="MO9" t="n">
+        <v>0.002285962011438492</v>
+      </c>
+      <c r="MP9" t="n">
+        <v>0.6337640162835552</v>
+      </c>
+      <c r="MQ9" t="n">
+        <v>0.5199719395744526</v>
+      </c>
+      <c r="MR9" t="n">
+        <v>0.8964954636171858</v>
+      </c>
+      <c r="MS9" t="n">
+        <v>0.3545246257612431</v>
+      </c>
+      <c r="MT9" t="n">
+        <v>0.06718092706215717</v>
+      </c>
+      <c r="MU9" t="n">
+        <v>0.6152172535312859</v>
+      </c>
+      <c r="MV9" t="n">
+        <v>0.6100954145941917</v>
+      </c>
+      <c r="MW9" t="n">
+        <v>0.3723281675710821</v>
+      </c>
+      <c r="MX9" t="n">
+        <v>0.06637465876170967</v>
+      </c>
+      <c r="MY9" t="n">
+        <v>0.08502136355125389</v>
+      </c>
+      <c r="MZ9" t="n">
+        <v>0.8431187165321057</v>
+      </c>
+      <c r="NA9" t="n">
+        <v>0.3717751442794055</v>
+      </c>
+      <c r="NB9" t="n">
+        <v>0.2484887851498525</v>
+      </c>
+      <c r="NC9" t="n">
+        <v>0.6403812911994772</v>
+      </c>
+      <c r="ND9" t="n">
+        <v>0.7397909787453832</v>
+      </c>
+      <c r="NE9" t="n">
+        <v>0.2459710076260485</v>
+      </c>
+      <c r="NF9" t="n">
+        <v>0.4188491257376286</v>
+      </c>
+      <c r="NG9" t="n">
+        <v>0.6356472982166861</v>
+      </c>
+      <c r="NH9" t="n">
+        <v>0.1021193579188162</v>
+      </c>
+      <c r="NI9" t="n">
+        <v>0.3314816850958257</v>
+      </c>
+      <c r="NJ9" t="n">
+        <v>0.3681654567585559</v>
+      </c>
+      <c r="NK9" t="n">
+        <v>0.7309832210816346</v>
+      </c>
+      <c r="NL9" t="n">
+        <v>0.7677310983106338</v>
+      </c>
+      <c r="NM9" t="n">
+        <v>0.9102276378567973</v>
+      </c>
+      <c r="NN9" t="n">
+        <v>0.3910912682431215</v>
+      </c>
+      <c r="NO9" t="n">
+        <v>0.08124839017989549</v>
+      </c>
+      <c r="NP9" t="n">
+        <v>0.3054056497658317</v>
+      </c>
+      <c r="NQ9" t="n">
+        <v>0.6381674247208736</v>
+      </c>
+      <c r="NR9" t="n">
+        <v>0.5633675286539486</v>
+      </c>
+      <c r="NS9" t="n">
+        <v>0.4109541492358414</v>
+      </c>
+      <c r="NT9" t="n">
+        <v>0.6669785253230578</v>
+      </c>
+      <c r="NU9" t="n">
+        <v>0.5888963618319341</v>
+      </c>
+      <c r="NV9" t="n">
+        <v>0.4923144974498704</v>
+      </c>
+      <c r="NW9" t="n">
+        <v>0.9356342034958011</v>
+      </c>
+      <c r="NX9" t="n">
+        <v>0.4220936703940031</v>
+      </c>
+      <c r="NY9" t="n">
+        <v>0.2777828299025625</v>
+      </c>
+      <c r="NZ9" t="n">
+        <v>0.3192785230874093</v>
+      </c>
+      <c r="OA9" t="n">
+        <v>0.04572684851572062</v>
+      </c>
+      <c r="OB9" t="n">
+        <v>0.6572627783888384</v>
+      </c>
+      <c r="OC9" t="n">
+        <v>0.6291007150785602</v>
+      </c>
+      <c r="OD9" t="n">
+        <v>0.8456251485873686</v>
+      </c>
+      <c r="OE9" t="n">
+        <v>0.6533374626169099</v>
+      </c>
+      <c r="OF9" t="n">
+        <v>0.1006006058209595</v>
+      </c>
+      <c r="OG9" t="n">
+        <v>0.02341767196108158</v>
+      </c>
+      <c r="OH9" t="n">
+        <v>0.7207518120770634</v>
+      </c>
+      <c r="OI9" t="n">
+        <v>0.36064429093915</v>
+      </c>
+      <c r="OJ9" t="n">
+        <v>0.970229274003829</v>
+      </c>
+      <c r="OK9" t="n">
+        <v>0.8186196192639545</v>
+      </c>
+      <c r="OL9" t="n">
+        <v>0.3727340762651206</v>
+      </c>
+      <c r="OM9" t="n">
+        <v>0.585855993034297</v>
+      </c>
+      <c r="ON9" t="n">
+        <v>0.6292995441584598</v>
+      </c>
+      <c r="OO9" t="n">
+        <v>0.3614563622484755</v>
+      </c>
+      <c r="OP9" t="n">
+        <v>0.003770018911352535</v>
+      </c>
+      <c r="OQ9" t="n">
+        <v>0.4992744129839934</v>
+      </c>
+      <c r="OR9" t="n">
+        <v>0.5410513806891888</v>
+      </c>
+      <c r="OS9" t="n">
+        <v>0.5497682902820463</v>
+      </c>
+      <c r="OT9" t="n">
+        <v>0.922032895853774</v>
+      </c>
+      <c r="OU9" t="n">
+        <v>0.4082731366478225</v>
+      </c>
+      <c r="OV9" t="n">
+        <v>0.9681732573000364</v>
+      </c>
+      <c r="OW9" t="n">
+        <v>0.4594694733980612</v>
+      </c>
+      <c r="OX9" t="n">
+        <v>0.4509743194693127</v>
+      </c>
+      <c r="OY9" t="n">
+        <v>0.5437148115604432</v>
+      </c>
+      <c r="OZ9" t="n">
+        <v>0.7228692398543787</v>
+      </c>
+      <c r="PA9" t="n">
+        <v>0.6623231572436664</v>
+      </c>
+      <c r="PB9" t="n">
+        <v>0.2368083345989388</v>
+      </c>
+      <c r="PC9" t="n">
+        <v>0.2458694494160251</v>
+      </c>
+      <c r="PD9" t="n">
+        <v>0.3893710109715608</v>
+      </c>
+      <c r="PE9" t="n">
+        <v>0.5315408628514182</v>
+      </c>
+      <c r="PF9" t="n">
+        <v>0.7518377042814037</v>
+      </c>
+      <c r="PG9" t="n">
+        <v>0.7345282593264962</v>
+      </c>
+      <c r="PH9" t="n">
+        <v>0.001129360689762215</v>
+      </c>
+      <c r="PI9" t="n">
+        <v>0.7018993279949751</v>
+      </c>
+      <c r="PJ9" t="n">
+        <v>0.6774895309583371</v>
+      </c>
+      <c r="PK9" t="n">
+        <v>0.6178177359395826</v>
+      </c>
+      <c r="PL9" t="n">
+        <v>0.7509583235620206</v>
+      </c>
+      <c r="PM9" t="n">
+        <v>0.8460254073362262</v>
+      </c>
+      <c r="PN9" t="n">
+        <v>0.3560744265884975</v>
+      </c>
+      <c r="PO9" t="n">
+        <v>0.6535603627408305</v>
+      </c>
+      <c r="PP9" t="n">
+        <v>0.5661520589270604</v>
+      </c>
+      <c r="PQ9" t="n">
+        <v>0.9531448517716001</v>
+      </c>
+      <c r="PR9" t="n">
+        <v>0.9354249911909753</v>
+      </c>
+      <c r="PS9" t="n">
+        <v>0.5001646694165505</v>
+      </c>
+      <c r="PT9" t="n">
+        <v>0.104615715881107</v>
+      </c>
+      <c r="PU9" t="n">
+        <v>0.2733288260315826</v>
+      </c>
+      <c r="PV9" t="n">
+        <v>0.5744507537673537</v>
+      </c>
+      <c r="PW9" t="n">
+        <v>0.4938625078849839</v>
+      </c>
+      <c r="PX9" t="n">
+        <v>0.49651524157977</v>
+      </c>
+      <c r="PY9" t="n">
+        <v>0.168350693329491</v>
+      </c>
+      <c r="PZ9" t="n">
+        <v>0.2538918019789753</v>
+      </c>
+      <c r="QA9" t="n">
+        <v>0.0377549043517974</v>
+      </c>
+      <c r="QB9" t="n">
+        <v>0.3144211957058988</v>
+      </c>
+      <c r="QC9" t="n">
+        <v>0.3633617726490938</v>
+      </c>
+      <c r="QD9" t="n">
+        <v>0.07824483576068086</v>
+      </c>
+      <c r="QE9" t="n">
+        <v>0.09015793130460104</v>
+      </c>
+      <c r="QF9" t="n">
+        <v>0.5590771218418097</v>
+      </c>
+      <c r="QG9" t="n">
+        <v>0.6414439191873894</v>
+      </c>
+      <c r="QH9" t="n">
+        <v>0.8942037502732361</v>
+      </c>
+      <c r="QI9" t="n">
+        <v>0.06121242980710628</v>
+      </c>
+      <c r="QJ9" t="n">
+        <v>0.4597384830114941</v>
+      </c>
+      <c r="QK9" t="n">
+        <v>0.7892421240034307</v>
+      </c>
+      <c r="QL9" t="n">
+        <v>0.1116935920690917</v>
+      </c>
+      <c r="QM9" t="n">
+        <v>0.272973791160298</v>
+      </c>
+      <c r="QN9" t="n">
+        <v>0.5318412807316935</v>
+      </c>
+      <c r="QO9" t="n">
+        <v>0.9055337628621164</v>
+      </c>
+      <c r="QP9" t="n">
+        <v>0.7635267951820883</v>
+      </c>
+      <c r="QQ9" t="n">
+        <v>0.5924766768171933</v>
+      </c>
+      <c r="QR9" t="n">
+        <v>0.9289290110461504</v>
+      </c>
+      <c r="QS9" t="n">
+        <v>0.2880869947478182</v>
+      </c>
+      <c r="QT9" t="n">
+        <v>0.2279808533286026</v>
+      </c>
+      <c r="QU9" t="n">
+        <v>0.2097201824723313</v>
+      </c>
+      <c r="QV9" t="n">
+        <v>0.7269162838917768</v>
+      </c>
+      <c r="QW9" t="n">
+        <v>0.9377713321518889</v>
+      </c>
+      <c r="QX9" t="n">
+        <v>0.6512632290682707</v>
+      </c>
+      <c r="QY9" t="n">
+        <v>0.4656760617608053</v>
+      </c>
+      <c r="QZ9" t="n">
+        <v>0.2830191384884937</v>
+      </c>
+      <c r="RA9" t="n">
+        <v>0.6053970716596724</v>
+      </c>
+      <c r="RB9" t="n">
+        <v>0.5838050536235692</v>
+      </c>
+      <c r="RC9" t="n">
+        <v>0.6557155281349485</v>
+      </c>
+      <c r="RD9" t="n">
+        <v>0.8232298441878506</v>
+      </c>
+      <c r="RE9" t="n">
+        <v>0.4300311526250445</v>
+      </c>
+      <c r="RF9" t="n">
+        <v>0.1353094201499545</v>
+      </c>
+      <c r="RG9" t="n">
+        <v>0.6531994001360723</v>
+      </c>
+      <c r="RH9" t="n">
+        <v>0.1072467257248684</v>
+      </c>
+      <c r="RI9" t="n">
+        <v>0.5103817787102093</v>
+      </c>
+      <c r="RJ9" t="n">
+        <v>0.7136986824896305</v>
+      </c>
+      <c r="RK9" t="n">
+        <v>0.5869198285710856</v>
+      </c>
+      <c r="RL9" t="n">
+        <v>0.6823149072168405</v>
+      </c>
+      <c r="RM9" t="n">
+        <v>0.2005337064665366</v>
+      </c>
+      <c r="RN9" t="n">
+        <v>0.6527862442783011</v>
+      </c>
+      <c r="RO9" t="n">
+        <v>0.7433012730846894</v>
+      </c>
+      <c r="RP9" t="n">
+        <v>0.6638034294587914</v>
+      </c>
+      <c r="RQ9" t="n">
+        <v>0.372583001390171</v>
+      </c>
+      <c r="RR9" t="n">
+        <v>0.9052140491748809</v>
+      </c>
+      <c r="RS9" t="n">
+        <v>0.9474932702906069</v>
+      </c>
+      <c r="RT9" t="n">
+        <v>0.2361008168775329</v>
+      </c>
+      <c r="RU9" t="n">
+        <v>0.08479412732953606</v>
+      </c>
+      <c r="RV9" t="n">
+        <v>0.83074704649847</v>
+      </c>
+      <c r="RW9" t="n">
+        <v>0.9397200304672204</v>
+      </c>
+      <c r="RX9" t="n">
+        <v>0.3199560637696014</v>
+      </c>
+      <c r="RY9" t="n">
+        <v>0.7770841489786157</v>
+      </c>
+      <c r="RZ9" t="n">
+        <v>0.6643929870254677</v>
+      </c>
+      <c r="SA9" t="n">
+        <v>0.2700305874099516</v>
+      </c>
+      <c r="SB9" t="n">
+        <v>0.3139683607475279</v>
+      </c>
+      <c r="SC9" t="n">
+        <v>0.5919944470447235</v>
+      </c>
+      <c r="SD9" t="n">
+        <v>0.4002854598229137</v>
+      </c>
+      <c r="SE9" t="n">
+        <v>0.5265627657229408</v>
+      </c>
+      <c r="SF9" t="n">
+        <v>0.3917230807325146</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1651,6 +6619,1248 @@
       </c>
       <c r="CH10" t="n">
         <v>0.6464646458625793</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.5050505101680756</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.7373737394809723</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.5656565725803375</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.939393937587738</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.5858585834503174</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.8080808073282242</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.6868686974048615</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.8989899009466171</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0.969696968793869</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0.7171717286109924</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.9898989899083972</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0.7474747598171234</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.939393937587738</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0.7373737394809723</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0.5858585834503174</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0.6767676770687103</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0.7070707082748413</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0.9898989899083972</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0.9090909063816071</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0.6767676770687103</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0.9090909063816071</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0.8484848439693451</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0.8181818127632141</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0.9090909063816071</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0.5656565725803375</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0.6262626349925995</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0.9494949504733086</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0.5959596037864685</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0.939393937587738</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0.9090909063816071</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0.8686868697404861</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0.6262626349925995</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0.7373737394809723</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0.9797979798167944</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>0.8383838385343552</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>0.8585858643054962</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>0.6363636255264282</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>0.7171717286109924</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>0.8686868697404861</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>0.8484848439693451</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>0.8282828330993652</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>0.9898989899083972</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>0.8484848439693451</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>0.6464646458625793</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0.5959596037864685</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0.5656565725803375</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>0.7777777761220932</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0.7676767706871033</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>0.9191919192671776</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0.7070707082748413</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0.5555555522441864</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0.7171717286109924</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0.7777777761220932</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0.939393937587738</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>0.6969696879386902</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0.939393937587738</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0.5656565725803375</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>0.6969696879386902</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0.5757575631141663</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0.5555555522441864</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>0.5656565725803375</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>0.6060605943202972</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0.8282828330993652</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>0.5959596037864685</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>0.8383838385343552</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0.939393937587738</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>0.969696968793869</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0.8282828330993652</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0.8181818127632141</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>0.9090909063816071</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>0.8282828330993652</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>0.9494949504733086</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>0.7373737394809723</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0.5353535413742065</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0.6363636255264282</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>0.8282828330993652</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>0.8787878751754761</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>0.6464646458625793</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>0.9797979798167944</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>0.7272727191448212</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>0.8585858643054962</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>0.939393937587738</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>0.9595959596335888</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>0.5959596037864685</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>0.7070707082748413</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>0.9090909063816071</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>0.5656565725803375</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>0.8181818127632141</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>0.8383838385343552</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>0.8787878751754761</v>
+      </c>
+      <c r="GH10" t="n">
+        <v>0.6464646458625793</v>
+      </c>
+      <c r="GI10" t="n">
+        <v>0.5858585834503174</v>
+      </c>
+      <c r="GJ10" t="n">
+        <v>0.9494949504733086</v>
+      </c>
+      <c r="GK10" t="n">
+        <v>0.9898989899083972</v>
+      </c>
+      <c r="GL10" t="n">
+        <v>0.8383838385343552</v>
+      </c>
+      <c r="GM10" t="n">
+        <v>0.7070707082748413</v>
+      </c>
+      <c r="GN10" t="n">
+        <v>0.7676767706871033</v>
+      </c>
+      <c r="GO10" t="n">
+        <v>0.5959596037864685</v>
+      </c>
+      <c r="GP10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="GQ10" t="n">
+        <v>0.6969696879386902</v>
+      </c>
+      <c r="GR10" t="n">
+        <v>0.6161616146564484</v>
+      </c>
+      <c r="GS10" t="n">
+        <v>0.8585858643054962</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>0.5555555522441864</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>0.9090909063816071</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>0.6464646458625793</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>0.6262626349925995</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>0.9595959596335888</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>0.6060605943202972</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>0.8686868697404861</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>0.7676767706871033</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>0.9090909063816071</v>
+      </c>
+      <c r="HC10" t="n">
+        <v>0.5656565725803375</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>0.6868686974048615</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>0.8484848439693451</v>
+      </c>
+      <c r="HG10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>0.6161616146564484</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>0.9797979798167944</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>0.7272727191448212</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>0.4444444179534912</v>
+      </c>
+      <c r="HL10" t="n">
+        <v>0.7777777761220932</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>0.6868686974048615</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>0.7272727191448212</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>0.6767676770687103</v>
+      </c>
+      <c r="HQ10" t="n">
+        <v>0.6060605943202972</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>0.9191919192671776</v>
+      </c>
+      <c r="HU10" t="n">
+        <v>0.8080808073282242</v>
+      </c>
+      <c r="HV10" t="n">
+        <v>0.7777777761220932</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>0.9191919192671776</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>0.7474747598171234</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>0.6666666567325592</v>
+      </c>
+      <c r="HZ10" t="n">
+        <v>0.6262626349925995</v>
+      </c>
+      <c r="IA10" t="n">
+        <v>0.9191919192671776</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>0.9595959596335888</v>
+      </c>
+      <c r="IC10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="ID10" t="n">
+        <v>0.6464646458625793</v>
+      </c>
+      <c r="IE10" t="n">
+        <v>0.6060605943202972</v>
+      </c>
+      <c r="IF10" t="n">
+        <v>0.7777777761220932</v>
+      </c>
+      <c r="IG10" t="n">
+        <v>0.8383838385343552</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>0.6767676770687103</v>
+      </c>
+      <c r="II10" t="n">
+        <v>0.7676767706871033</v>
+      </c>
+      <c r="IJ10" t="n">
+        <v>0.6767676770687103</v>
+      </c>
+      <c r="IK10" t="n">
+        <v>0.6969696879386902</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>0.6161616146564484</v>
+      </c>
+      <c r="IM10" t="n">
+        <v>0.8888888880610466</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>0.6060605943202972</v>
+      </c>
+      <c r="IO10" t="n">
+        <v>0.8282828330993652</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>0.6161616146564484</v>
+      </c>
+      <c r="IQ10" t="n">
+        <v>0.8989899009466171</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>0.9898989899083972</v>
+      </c>
+      <c r="IS10" t="n">
+        <v>0.4949495196342468</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="IU10" t="n">
+        <v>0.969696968793869</v>
+      </c>
+      <c r="IV10" t="n">
+        <v>0.9090909063816071</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>0.5959596037864685</v>
+      </c>
+      <c r="IX10" t="n">
+        <v>0.6161616146564484</v>
+      </c>
+      <c r="IY10" t="n">
+        <v>0.9595959596335888</v>
+      </c>
+      <c r="IZ10" t="n">
+        <v>0.8181818127632141</v>
+      </c>
+      <c r="JA10" t="n">
+        <v>0.6464646458625793</v>
+      </c>
+      <c r="JB10" t="n">
+        <v>0.9797979798167944</v>
+      </c>
+      <c r="JC10" t="n">
+        <v>0.5252525210380554</v>
+      </c>
+      <c r="JD10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="JE10" t="n">
+        <v>0.9595959596335888</v>
+      </c>
+      <c r="JF10" t="n">
+        <v>0.8686868697404861</v>
+      </c>
+      <c r="JG10" t="n">
+        <v>0.9494949504733086</v>
+      </c>
+      <c r="JH10" t="n">
+        <v>0.8080808073282242</v>
+      </c>
+      <c r="JI10" t="n">
+        <v>0.7373737394809723</v>
+      </c>
+      <c r="JJ10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="JK10" t="n">
+        <v>0.7676767706871033</v>
+      </c>
+      <c r="JL10" t="n">
+        <v>0.969696968793869</v>
+      </c>
+      <c r="JM10" t="n">
+        <v>0.6868686974048615</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>0.8888888880610466</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>0.6363636255264282</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>0.6666666567325592</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>0.9595959596335888</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>0.8989899009466171</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>0.6969696879386902</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>0.6262626349925995</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>0.9898989899083972</v>
+      </c>
+      <c r="JW10" t="n">
+        <v>0.5757575631141663</v>
+      </c>
+      <c r="JX10" t="n">
+        <v>0.7474747598171234</v>
+      </c>
+      <c r="JY10" t="n">
+        <v>0.5656565725803375</v>
+      </c>
+      <c r="JZ10" t="n">
+        <v>0.5757575631141663</v>
+      </c>
+      <c r="KA10" t="n">
+        <v>0.5454545319080353</v>
+      </c>
+      <c r="KB10" t="n">
+        <v>0.5454545319080353</v>
+      </c>
+      <c r="KC10" t="n">
+        <v>0.5757575631141663</v>
+      </c>
+      <c r="KD10" t="n">
+        <v>0.6868686974048615</v>
+      </c>
+      <c r="KE10" t="n">
+        <v>0.6262626349925995</v>
+      </c>
+      <c r="KF10" t="n">
+        <v>0.7373737394809723</v>
+      </c>
+      <c r="KG10" t="n">
+        <v>0.7272727191448212</v>
+      </c>
+      <c r="KH10" t="n">
+        <v>0.9898989899083972</v>
+      </c>
+      <c r="KI10" t="n">
+        <v>0.6666666567325592</v>
+      </c>
+      <c r="KJ10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="KK10" t="n">
+        <v>0.6363636255264282</v>
+      </c>
+      <c r="KL10" t="n">
+        <v>0.8585858643054962</v>
+      </c>
+      <c r="KM10" t="n">
+        <v>0.9090909063816071</v>
+      </c>
+      <c r="KN10" t="n">
+        <v>0.5959596037864685</v>
+      </c>
+      <c r="KO10" t="n">
+        <v>0.5757575631141663</v>
+      </c>
+      <c r="KP10" t="n">
+        <v>0.6868686974048615</v>
+      </c>
+      <c r="KQ10" t="n">
+        <v>0.7979798018932343</v>
+      </c>
+      <c r="KR10" t="n">
+        <v>0.8787878751754761</v>
+      </c>
+      <c r="KS10" t="n">
+        <v>0.9898989899083972</v>
+      </c>
+      <c r="KT10" t="n">
+        <v>0.6060605943202972</v>
+      </c>
+      <c r="KU10" t="n">
+        <v>0.5757575631141663</v>
+      </c>
+      <c r="KV10" t="n">
+        <v>0.5252525210380554</v>
+      </c>
+      <c r="KW10" t="n">
+        <v>0.9292929321527481</v>
+      </c>
+      <c r="KX10" t="n">
+        <v>0.7979798018932343</v>
+      </c>
+      <c r="KY10" t="n">
+        <v>0.6262626349925995</v>
+      </c>
+      <c r="KZ10" t="n">
+        <v>0.5757575631141663</v>
+      </c>
+      <c r="LA10" t="n">
+        <v>0.7979798018932343</v>
+      </c>
+      <c r="LB10" t="n">
+        <v>0.6666666567325592</v>
+      </c>
+      <c r="LC10" t="n">
+        <v>0.7676767706871033</v>
+      </c>
+      <c r="LD10" t="n">
+        <v>0.6161616146564484</v>
+      </c>
+      <c r="LE10" t="n">
+        <v>0.7777777761220932</v>
+      </c>
+      <c r="LF10" t="n">
+        <v>0.8181818127632141</v>
+      </c>
+      <c r="LG10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="LH10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="LI10" t="n">
+        <v>0.6060605943202972</v>
+      </c>
+      <c r="LJ10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="LK10" t="n">
+        <v>0.7979798018932343</v>
+      </c>
+      <c r="LL10" t="n">
+        <v>0.7373737394809723</v>
+      </c>
+      <c r="LM10" t="n">
+        <v>0.7979798018932343</v>
+      </c>
+      <c r="LN10" t="n">
+        <v>0.8181818127632141</v>
+      </c>
+      <c r="LO10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="LP10" t="n">
+        <v>0.7070707082748413</v>
+      </c>
+      <c r="LQ10" t="n">
+        <v>0.7373737394809723</v>
+      </c>
+      <c r="LR10" t="n">
+        <v>0.9494949504733086</v>
+      </c>
+      <c r="LS10" t="n">
+        <v>0.8989899009466171</v>
+      </c>
+      <c r="LT10" t="n">
+        <v>0.7474747598171234</v>
+      </c>
+      <c r="LU10" t="n">
+        <v>0.5656565725803375</v>
+      </c>
+      <c r="LV10" t="n">
+        <v>0.7676767706871033</v>
+      </c>
+      <c r="LW10" t="n">
+        <v>0.9797979798167944</v>
+      </c>
+      <c r="LX10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="LY10" t="n">
+        <v>0.8585858643054962</v>
+      </c>
+      <c r="LZ10" t="n">
+        <v>0.5050505101680756</v>
+      </c>
+      <c r="MA10" t="n">
+        <v>0.8888888880610466</v>
+      </c>
+      <c r="MB10" t="n">
+        <v>0.6767676770687103</v>
+      </c>
+      <c r="MC10" t="n">
+        <v>0.8888888880610466</v>
+      </c>
+      <c r="MD10" t="n">
+        <v>0.7777777761220932</v>
+      </c>
+      <c r="ME10" t="n">
+        <v>0.7272727191448212</v>
+      </c>
+      <c r="MF10" t="n">
+        <v>0.7676767706871033</v>
+      </c>
+      <c r="MG10" t="n">
+        <v>0.5050505101680756</v>
+      </c>
+      <c r="MH10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="MI10" t="n">
+        <v>1</v>
+      </c>
+      <c r="MJ10" t="n">
+        <v>0.6262626349925995</v>
+      </c>
+      <c r="MK10" t="n">
+        <v>0.4848484992980957</v>
+      </c>
+      <c r="ML10" t="n">
+        <v>0.7474747598171234</v>
+      </c>
+      <c r="MM10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="MN10" t="n">
+        <v>0.8787878751754761</v>
+      </c>
+      <c r="MO10" t="n">
+        <v>0.5353535413742065</v>
+      </c>
+      <c r="MP10" t="n">
+        <v>0.7676767706871033</v>
+      </c>
+      <c r="MQ10" t="n">
+        <v>0.7979798018932343</v>
+      </c>
+      <c r="MR10" t="n">
+        <v>0.939393937587738</v>
+      </c>
+      <c r="MS10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="MT10" t="n">
+        <v>0.6060605943202972</v>
+      </c>
+      <c r="MU10" t="n">
+        <v>0.8585858643054962</v>
+      </c>
+      <c r="MV10" t="n">
+        <v>0.8484848439693451</v>
+      </c>
+      <c r="MW10" t="n">
+        <v>0.7171717286109924</v>
+      </c>
+      <c r="MX10" t="n">
+        <v>0.6161616146564484</v>
+      </c>
+      <c r="MY10" t="n">
+        <v>0.5454545319080353</v>
+      </c>
+      <c r="MZ10" t="n">
+        <v>0.9191919192671776</v>
+      </c>
+      <c r="NA10" t="n">
+        <v>0.7171717286109924</v>
+      </c>
+      <c r="NB10" t="n">
+        <v>0.6666666567325592</v>
+      </c>
+      <c r="NC10" t="n">
+        <v>0.8484848439693451</v>
+      </c>
+      <c r="ND10" t="n">
+        <v>0.8383838385343552</v>
+      </c>
+      <c r="NE10" t="n">
+        <v>0.7474747598171234</v>
+      </c>
+      <c r="NF10" t="n">
+        <v>0.7676767706871033</v>
+      </c>
+      <c r="NG10" t="n">
+        <v>0.8888888880610466</v>
+      </c>
+      <c r="NH10" t="n">
+        <v>0.6464646458625793</v>
+      </c>
+      <c r="NI10" t="n">
+        <v>0.6363636255264282</v>
+      </c>
+      <c r="NJ10" t="n">
+        <v>0.6969696879386902</v>
+      </c>
+      <c r="NK10" t="n">
+        <v>0.8888888880610466</v>
+      </c>
+      <c r="NL10" t="n">
+        <v>0.8989899009466171</v>
+      </c>
+      <c r="NM10" t="n">
+        <v>0.969696968793869</v>
+      </c>
+      <c r="NN10" t="n">
+        <v>0.7676767706871033</v>
+      </c>
+      <c r="NO10" t="n">
+        <v>0.5454545319080353</v>
+      </c>
+      <c r="NP10" t="n">
+        <v>0.7171717286109924</v>
+      </c>
+      <c r="NQ10" t="n">
+        <v>0.8080808073282242</v>
+      </c>
+      <c r="NR10" t="n">
+        <v>0.8181818127632141</v>
+      </c>
+      <c r="NS10" t="n">
+        <v>0.6767676770687103</v>
+      </c>
+      <c r="NT10" t="n">
+        <v>0.8383838385343552</v>
+      </c>
+      <c r="NU10" t="n">
+        <v>0.8282828330993652</v>
+      </c>
+      <c r="NV10" t="n">
+        <v>0.7171717286109924</v>
+      </c>
+      <c r="NW10" t="n">
+        <v>0.969696968793869</v>
+      </c>
+      <c r="NX10" t="n">
+        <v>0.7474747598171234</v>
+      </c>
+      <c r="NY10" t="n">
+        <v>0.6666666567325592</v>
+      </c>
+      <c r="NZ10" t="n">
+        <v>0.6464646458625793</v>
+      </c>
+      <c r="OA10" t="n">
+        <v>0.5858585834503174</v>
+      </c>
+      <c r="OB10" t="n">
+        <v>0.8989899009466171</v>
+      </c>
+      <c r="OC10" t="n">
+        <v>0.8484848439693451</v>
+      </c>
+      <c r="OD10" t="n">
+        <v>0.8989899009466171</v>
+      </c>
+      <c r="OE10" t="n">
+        <v>0.8181818127632141</v>
+      </c>
+      <c r="OF10" t="n">
+        <v>0.5252525210380554</v>
+      </c>
+      <c r="OG10" t="n">
+        <v>0.5757575631141663</v>
+      </c>
+      <c r="OH10" t="n">
+        <v>0.8888888880610466</v>
+      </c>
+      <c r="OI10" t="n">
+        <v>0.7171717286109924</v>
+      </c>
+      <c r="OJ10" t="n">
+        <v>0.9898989899083972</v>
+      </c>
+      <c r="OK10" t="n">
+        <v>0.8787878751754761</v>
+      </c>
+      <c r="OL10" t="n">
+        <v>0.7171717286109924</v>
+      </c>
+      <c r="OM10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="ON10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="OO10" t="n">
+        <v>0.7373737394809723</v>
+      </c>
+      <c r="OP10" t="n">
+        <v>0.4949495196342468</v>
+      </c>
+      <c r="OQ10" t="n">
+        <v>0.7474747598171234</v>
+      </c>
+      <c r="OR10" t="n">
+        <v>0.8080808073282242</v>
+      </c>
+      <c r="OS10" t="n">
+        <v>0.7777777761220932</v>
+      </c>
+      <c r="OT10" t="n">
+        <v>0.9595959596335888</v>
+      </c>
+      <c r="OU10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="OV10" t="n">
+        <v>0.9797979798167944</v>
+      </c>
+      <c r="OW10" t="n">
+        <v>0.7474747598171234</v>
+      </c>
+      <c r="OX10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="OY10" t="n">
+        <v>0.8282828330993652</v>
+      </c>
+      <c r="OZ10" t="n">
+        <v>0.8484848439693451</v>
+      </c>
+      <c r="PA10" t="n">
+        <v>0.8686868697404861</v>
+      </c>
+      <c r="PB10" t="n">
+        <v>0.6262626349925995</v>
+      </c>
+      <c r="PC10" t="n">
+        <v>0.6767676770687103</v>
+      </c>
+      <c r="PD10" t="n">
+        <v>0.7171717286109924</v>
+      </c>
+      <c r="PE10" t="n">
+        <v>0.7979798018932343</v>
+      </c>
+      <c r="PF10" t="n">
+        <v>0.8888888880610466</v>
+      </c>
+      <c r="PG10" t="n">
+        <v>0.8585858643054962</v>
+      </c>
+      <c r="PH10" t="n">
+        <v>0.5050505101680756</v>
+      </c>
+      <c r="PI10" t="n">
+        <v>0.9090909063816071</v>
+      </c>
+      <c r="PJ10" t="n">
+        <v>0.8383838385343552</v>
+      </c>
+      <c r="PK10" t="n">
+        <v>0.8686868697404861</v>
+      </c>
+      <c r="PL10" t="n">
+        <v>0.9292929321527481</v>
+      </c>
+      <c r="PM10" t="n">
+        <v>0.9191919192671776</v>
+      </c>
+      <c r="PN10" t="n">
+        <v>0.7070707082748413</v>
+      </c>
+      <c r="PO10" t="n">
+        <v>0.8282828330993652</v>
+      </c>
+      <c r="PP10" t="n">
+        <v>0.8484848439693451</v>
+      </c>
+      <c r="PQ10" t="n">
+        <v>0.969696968793869</v>
+      </c>
+      <c r="PR10" t="n">
+        <v>0.9797979798167944</v>
+      </c>
+      <c r="PS10" t="n">
+        <v>0.8181818127632141</v>
+      </c>
+      <c r="PT10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="PU10" t="n">
+        <v>0.6868686974048615</v>
+      </c>
+      <c r="PV10" t="n">
+        <v>0.8484848439693451</v>
+      </c>
+      <c r="PW10" t="n">
+        <v>0.7272727191448212</v>
+      </c>
+      <c r="PX10" t="n">
+        <v>0.7777777761220932</v>
+      </c>
+      <c r="PY10" t="n">
+        <v>0.6464646458625793</v>
+      </c>
+      <c r="PZ10" t="n">
+        <v>0.6363636255264282</v>
+      </c>
+      <c r="QA10" t="n">
+        <v>0.5050505101680756</v>
+      </c>
+      <c r="QB10" t="n">
+        <v>0.6868686974048615</v>
+      </c>
+      <c r="QC10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="QD10" t="n">
+        <v>0.6767676770687103</v>
+      </c>
+      <c r="QE10" t="n">
+        <v>0.5959596037864685</v>
+      </c>
+      <c r="QF10" t="n">
+        <v>0.7676767706871033</v>
+      </c>
+      <c r="QG10" t="n">
+        <v>0.8383838385343552</v>
+      </c>
+      <c r="QH10" t="n">
+        <v>0.9595959596335888</v>
+      </c>
+      <c r="QI10" t="n">
+        <v>0.5252525210380554</v>
+      </c>
+      <c r="QJ10" t="n">
+        <v>0.7474747598171234</v>
+      </c>
+      <c r="QK10" t="n">
+        <v>0.9191919192671776</v>
+      </c>
+      <c r="QL10" t="n">
+        <v>0.6666666567325592</v>
+      </c>
+      <c r="QM10" t="n">
+        <v>0.6868686974048615</v>
+      </c>
+      <c r="QN10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="QO10" t="n">
+        <v>0.9191919192671776</v>
+      </c>
+      <c r="QP10" t="n">
+        <v>0.8989899009466171</v>
+      </c>
+      <c r="QQ10" t="n">
+        <v>0.8080808073282242</v>
+      </c>
+      <c r="QR10" t="n">
+        <v>0.9797979798167944</v>
+      </c>
+      <c r="QS10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="QT10" t="n">
+        <v>0.5858585834503174</v>
+      </c>
+      <c r="QU10" t="n">
+        <v>0.6363636255264282</v>
+      </c>
+      <c r="QV10" t="n">
+        <v>0.8686868697404861</v>
+      </c>
+      <c r="QW10" t="n">
+        <v>0.9595959596335888</v>
+      </c>
+      <c r="QX10" t="n">
+        <v>0.8383838385343552</v>
+      </c>
+      <c r="QY10" t="n">
+        <v>0.7272727191448212</v>
+      </c>
+      <c r="QZ10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="RA10" t="n">
+        <v>0.8080808073282242</v>
+      </c>
+      <c r="RB10" t="n">
+        <v>0.7878787815570831</v>
+      </c>
+      <c r="RC10" t="n">
+        <v>0.8484848439693451</v>
+      </c>
+      <c r="RD10" t="n">
+        <v>0.8989899009466171</v>
+      </c>
+      <c r="RE10" t="n">
+        <v>0.7272727191448212</v>
+      </c>
+      <c r="RF10" t="n">
+        <v>0.5555555522441864</v>
+      </c>
+      <c r="RG10" t="n">
+        <v>0.8787878751754761</v>
+      </c>
+      <c r="RH10" t="n">
+        <v>0.6161616146564484</v>
+      </c>
+      <c r="RI10" t="n">
+        <v>0.7777777761220932</v>
+      </c>
+      <c r="RJ10" t="n">
+        <v>0.8585858643054962</v>
+      </c>
+      <c r="RK10" t="n">
+        <v>0.7979798018932343</v>
+      </c>
+      <c r="RL10" t="n">
+        <v>0.8787878751754761</v>
+      </c>
+      <c r="RM10" t="n">
+        <v>0.6464646458625793</v>
+      </c>
+      <c r="RN10" t="n">
+        <v>0.8484848439693451</v>
+      </c>
+      <c r="RO10" t="n">
+        <v>0.8888888880610466</v>
+      </c>
+      <c r="RP10" t="n">
+        <v>0.8585858643054962</v>
+      </c>
+      <c r="RQ10" t="n">
+        <v>0.7171717286109924</v>
+      </c>
+      <c r="RR10" t="n">
+        <v>0.9595959596335888</v>
+      </c>
+      <c r="RS10" t="n">
+        <v>0.9595959596335888</v>
+      </c>
+      <c r="RT10" t="n">
+        <v>0.6868686974048615</v>
+      </c>
+      <c r="RU10" t="n">
+        <v>0.5959596037864685</v>
+      </c>
+      <c r="RV10" t="n">
+        <v>0.8989899009466171</v>
+      </c>
+      <c r="RW10" t="n">
+        <v>0.9898989899083972</v>
+      </c>
+      <c r="RX10" t="n">
+        <v>0.6969696879386902</v>
+      </c>
+      <c r="RY10" t="n">
+        <v>0.9191919192671776</v>
+      </c>
+      <c r="RZ10" t="n">
+        <v>0.8282828330993652</v>
+      </c>
+      <c r="SA10" t="n">
+        <v>0.6565656661987305</v>
+      </c>
+      <c r="SB10" t="n">
+        <v>0.6262626349925995</v>
+      </c>
+      <c r="SC10" t="n">
+        <v>0.8080808073282242</v>
+      </c>
+      <c r="SD10" t="n">
+        <v>0.7575757503509521</v>
+      </c>
+      <c r="SE10" t="n">
+        <v>0.8181818127632141</v>
+      </c>
+      <c r="SF10" t="n">
+        <v>0.7171717286109924</v>
       </c>
     </row>
   </sheetData>
